--- a/spec/ASW/Eng/ETS/EngDem/EngReq/EngReq_SmkLimCalc/EngReq_SmkLimCalc.xlsx
+++ b/spec/ASW/Eng/ETS/EngDem/EngReq/EngReq_SmkLimCalc/EngReq_SmkLimCalc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\EngDem\EngReq\EngReq_SmkLimCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E910627-0F74-4377-9CEB-447B7B891A57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,321 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air_tIntkVUs</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Intake air temperature upstream of the inlet valve</t>
+  </si>
+  <si>
+    <t>Air_pIntkVUs</t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>Intake valve upstream pressure</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>AFS_mAirPerCyl</t>
+  </si>
+  <si>
+    <t>mg/hub</t>
+  </si>
+  <si>
+    <t>Air mass per cylinder</t>
+  </si>
+  <si>
+    <t>EnvP_p</t>
+  </si>
+  <si>
+    <t>Barometric pressure</t>
+  </si>
+  <si>
+    <t>CnvSet_etaCurrRmp</t>
+  </si>
+  <si>
+    <t>Nm/(mg/hub)</t>
+  </si>
+  <si>
+    <t>Conversion efficiency corresponding to CnvSet_qSet</t>
+  </si>
+  <si>
+    <t>SmkLim_qLimSmk</t>
+  </si>
+  <si>
+    <t>Smoke limitation quantity in current operation mode</t>
+  </si>
+  <si>
+    <t>EngReq_trqInrLimSmkPrs</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Resulting limiting torque smoke limit current operation mode</t>
+  </si>
+  <si>
+    <t>EngReq_trqInrLimSmk</t>
+  </si>
+  <si>
+    <t>Limiting torque smoke limit</t>
+  </si>
+  <si>
+    <t>EngReq_trqInrLimSmkSlow</t>
+  </si>
+  <si>
+    <t>Limiting torque smoke limit of slow path</t>
+  </si>
+  <si>
+    <t>AFS_mAirPerCylFlt</t>
+  </si>
+  <si>
+    <t>filtered Air mass per cylinder</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkATSCor_mp</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkBase_mp</t>
+  </si>
+  <si>
+    <t>Smoke Limitation torque</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFSBase_mp</t>
+  </si>
+  <si>
+    <t>Smoke Limitation torque when using AFS</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFSEnvPCor_mp</t>
+  </si>
+  <si>
+    <t>Smoke Limitation torque correction for EnvP</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkEnvPCor_mp</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkATSCor_CUR</t>
+  </si>
+  <si>
+    <t>[1 1 1 1 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkATSCor_CURX</t>
+  </si>
+  <si>
+    <t>[-30 -20 -10 0 10 50 80 110]</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmk_MAP</t>
+  </si>
+  <si>
+    <t>[260 260 258.0078125 228.0078125 195.7421875 191.3671875 191.953125 191.1328125 151.6796875 146.1328125 146.1328125 146.1328125 146.1328125 146.1328125 152.3046875 156.5234375 152.96875 153.75 152.9296875 152.34375 149.1796875 148.5546875 145.859375 143.046875 143.046875;260 260 258.0078125 256.6015625 194.296875 197.4609375 195.46875 194.609375 191.09375 193.4765625 195.6640625 187.5 189.1796875 189.1796875 195.9375 197.9296875 194.4140625 191.015625 192.34375 187.34375 180.703125 180.1171875 176.9140625 176.9140625 176.9140625;260 260 258.0078125 264.609375 227.1484375 228.7890625 225.546875 227.734375 224.453125 228.4765625 231.5625 228.125 231.6015625 230 234.8046875 241.1328125 233.9453125 228.5546875 225.2734375 217.578125 210.8984375 208.3984375 207.1484375 207.1484375 207.1484375;260 260 258.0078125 276.015625 249.296875 250.8984375 245.234375 247.5390625 250.078125 252.5 248.7109375 249.1015625 250.6640625 257.0703125 260.7421875 266.796875 259.6875 258.0859375 250.6640625 246.6796875 239.921875 232.65625 229.4921875 229.4921875 229.4921875;260 260 258.0078125 286.015625 252.5 250.8984375 247.2265625 249.453125 252.03125 254.375 253.984375 255.9765625 255.9765625 260 268.0078125 269.765625 264.1796875 260.2734375 258.4375 254.921875 248.3203125 242.890625 242.890625 242.890625 242.890625;260 260 260 295.9765625 271.7578125 270.1171875 265.9375 268.2421875 264.6484375 267.03125 266.09375 264.0234375 269.609375 276.796875 281.5234375 285.7421875 281.5234375 278.5546875 275.859375 273.5546875 268.515625 266.015625 262.7734375 261.2109375 261.2109375;260 260 260 299.9609375 286.875 286.875 281.71875 284.140625 277.96875 279.4140625 281.9140625 286.6796875 292.5 295.1171875 299.5703125 293.984375 295.1953125 294.8046875 293.984375 292.734375 288.5546875 283.4375 280 276.71875 276.71875;260 260 260 299.9609375 298.59375 298.59375 300.859375 306.0546875 297.5 295.234375 300.234375 300.9765625 303.4375 307.7734375 309.6875 317.6953125 316.71875 312.421875 311.2109375 307.2265625 302.2265625 298.984375 297.96875 296.171875 296.171875;260 260 260 299.9609375 310.9375 310.9375 321.5234375 323.125 314.140625 311.484375 311.484375 317.5390625 321.1328125 321.640625 327.890625 333.75 330.9375 329.4921875 323.0859375 318.5546875 312.2265625 311.4453125 307.7734375 307.7734375 307.7734375]</t>
+  </si>
+  <si>
+    <t>base torque for smoke limitation</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmk_MAPX</t>
+  </si>
+  <si>
+    <t>[0 300 500 600 800 1000 1200 1400 1600 1800 2000 2200 2400 2600 2800 3000 3200 3400 3600 3800 4000 4200 4400 4600 4800]</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmk_MAPY</t>
+  </si>
+  <si>
+    <t>[0 10 20 40 60 80 100 120 140]</t>
+  </si>
+  <si>
+    <t>EngReq_SlpLimPos_C</t>
+  </si>
+  <si>
+    <t>Nm/s</t>
+  </si>
+  <si>
+    <t>Increase limitation ramp / Slope if the ramp has to be increased</t>
+  </si>
+  <si>
+    <t>EngReq_SlpLimNeg_C</t>
+  </si>
+  <si>
+    <t>Increase limitation ramp / negative ramp slope</t>
+  </si>
+  <si>
+    <t>EngReq_nSlpLimMin_C</t>
+  </si>
+  <si>
+    <t>Engine speed threshold for activating smoke limitation rise limiting</t>
+  </si>
+  <si>
+    <t>EngReq_bSmkLimIntkP_C</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>boolean flag for BPS or AFS work for smoke limit</t>
+  </si>
+  <si>
+    <t>EngReq_facAFSFlt_C</t>
+  </si>
+  <si>
+    <t>filter for AFS signal used to smoke limit</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFS_MAP</t>
+  </si>
+  <si>
+    <t>[25 25]</t>
+  </si>
+  <si>
+    <t>1000.*ones(25,25)</t>
+  </si>
+  <si>
+    <t>base torque for smoke limitation when use AFS</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFS_MAPX</t>
+  </si>
+  <si>
+    <t>linspace(400,4000,25)</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFS_MAPY</t>
+  </si>
+  <si>
+    <t>linspace(400,10000,25)</t>
+  </si>
+  <si>
+    <t>Yaxis point, AFS_mAirPerCylFlt</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFSEnvPCor_MAP</t>
+  </si>
+  <si>
+    <t>zeros(25,25)</t>
+  </si>
+  <si>
+    <t>correction torque for smoke limitation when use AFS</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFSEnvPCor_MAPX</t>
+  </si>
+  <si>
+    <t>SmkLim_trqLimSmkAFSEnvPCor_MAPY</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkEnvPCor_CUR</t>
+  </si>
+  <si>
+    <t>[1 16]</t>
+  </si>
+  <si>
+    <t>ones(1,16)</t>
+  </si>
+  <si>
+    <t>Smoke limitation correction curve of EnvP</t>
+  </si>
+  <si>
+    <t>SmkLim_facSmkEnvPCor_CURX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> linspace(50,110,16)</t>
+  </si>
+  <si>
+    <t>EngReq_bSmkLimCnv_C</t>
+  </si>
+  <si>
+    <t>Temp_C</t>
+  </si>
+  <si>
+    <t>Temp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press_kpa</t>
+  </si>
+  <si>
+    <t>Press_kpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Mass_mg</t>
+  </si>
+  <si>
+    <t>Effcy</t>
+  </si>
+  <si>
+    <t>InjMass</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Torq_s</t>
+  </si>
+  <si>
+    <t>Fac_10</t>
+  </si>
+  <si>
+    <t>air Temperature Correction Fac_10 for smoke Limitation</t>
+  </si>
+  <si>
+    <t>Smoke limitation correction Fac_10 of EnvP</t>
+  </si>
+  <si>
+    <t>Intake air Temperature Correction Fac_10 for smoke Limitation</t>
+  </si>
+  <si>
+    <t>[1 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9 25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axis points of curve, EnvP_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean flag for smoke limit trq sources select based on fuel quantity to torque or (BPS/AFS)work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fac100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +816,188 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16383</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-319</v>
+      </c>
+      <c r="C8" s="5">
+        <v>319</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1051,110 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16383</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1207,130 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1342,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,46 +1382,501 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>99.9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>16383</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16383</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="6"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
